--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
   <si>
     <t>Action</t>
   </si>
@@ -240,6 +240,48 @@
   </si>
   <si>
     <t>updateOutputTable</t>
+  </si>
+  <si>
+    <t>INDICATOR_14</t>
+  </si>
+  <si>
+    <t>INDICATOR_19</t>
+  </si>
+  <si>
+    <t>INDICATOR_20</t>
+  </si>
+  <si>
+    <t>INDICATOR_31</t>
+  </si>
+  <si>
+    <t>INDICATOR_1</t>
+  </si>
+  <si>
+    <t>INDICATOR_3</t>
+  </si>
+  <si>
+    <t>INDICATOR_4</t>
+  </si>
+  <si>
+    <t>INDICATOR_5</t>
+  </si>
+  <si>
+    <t>INDICATOR_21</t>
+  </si>
+  <si>
+    <t>INDICATOR_23</t>
+  </si>
+  <si>
+    <t>INDICATOR_36</t>
+  </si>
+  <si>
+    <t>INDICATOR_100</t>
+  </si>
+  <si>
+    <t>INDICATOR_9</t>
+  </si>
+  <si>
+    <t>INDICATOR_30</t>
   </si>
 </sst>
 </file>
@@ -859,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1116,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1090,8 +1132,8 @@
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1107,8 +1149,8 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1124,8 +1166,8 @@
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1141,8 +1183,8 @@
       <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1159,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1176,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1192,8 +1234,8 @@
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1210,7 +1252,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1227,7 +1269,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -1244,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1261,7 +1303,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1278,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -1294,8 +1336,8 @@
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -1312,7 +1354,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1329,7 +1371,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -1346,12 +1388,250 @@
         <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1399,6 +1679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -1512,7 +1798,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1521,13 +1807,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1543,25 +1838,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="79">
   <si>
     <t>Action</t>
   </si>
@@ -282,6 +282,69 @@
   </si>
   <si>
     <t>INDICATOR_30</t>
+  </si>
+  <si>
+    <t>INDICATOR_102</t>
+  </si>
+  <si>
+    <t>INDICATOR_103</t>
+  </si>
+  <si>
+    <t>INDICATOR_104</t>
+  </si>
+  <si>
+    <t>INDICATOR_105</t>
+  </si>
+  <si>
+    <t>INDICATOR_106</t>
+  </si>
+  <si>
+    <t>INDICATOR_107</t>
+  </si>
+  <si>
+    <t>INDICATOR_108</t>
+  </si>
+  <si>
+    <t>INDICATOR_114</t>
+  </si>
+  <si>
+    <t>INDICATOR_115</t>
+  </si>
+  <si>
+    <t>INDICATOR_116</t>
+  </si>
+  <si>
+    <t>INDICATOR_117</t>
+  </si>
+  <si>
+    <t>INDICATOR_162</t>
+  </si>
+  <si>
+    <t>INDICATOR_163</t>
+  </si>
+  <si>
+    <t>INDICATOR_164</t>
+  </si>
+  <si>
+    <t>INDICATOR_165</t>
+  </si>
+  <si>
+    <t>INDICATOR_166</t>
+  </si>
+  <si>
+    <t>INDICATOR_167</t>
+  </si>
+  <si>
+    <t>INDICATOR_168</t>
+  </si>
+  <si>
+    <t>INDICATOR_169</t>
+  </si>
+  <si>
+    <t>INDICATOR_170</t>
+  </si>
+  <si>
+    <t>INDICATOR_171</t>
   </si>
 </sst>
 </file>
@@ -399,7 +462,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -448,7 +511,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,7 +570,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -556,7 +619,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -901,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1632,6 +1695,363 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1679,9 +2099,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1799,25 +2222,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1839,9 +2252,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
   <si>
     <t>Action</t>
   </si>
@@ -345,6 +345,69 @@
   </si>
   <si>
     <t>INDICATOR_171</t>
+  </si>
+  <si>
+    <t>INDICATOR_200</t>
+  </si>
+  <si>
+    <t>INDICATOR_203</t>
+  </si>
+  <si>
+    <t>INDICATOR_52</t>
+  </si>
+  <si>
+    <t>INDICATOR_53</t>
+  </si>
+  <si>
+    <t>INDICATOR_60</t>
+  </si>
+  <si>
+    <t>INDICATOR_65</t>
+  </si>
+  <si>
+    <t>INDICATOR_66</t>
+  </si>
+  <si>
+    <t>INDICATOR_218</t>
+  </si>
+  <si>
+    <t>INDICATOR_219</t>
+  </si>
+  <si>
+    <t>INDICATOR_70</t>
+  </si>
+  <si>
+    <t>INDICATOR_71</t>
+  </si>
+  <si>
+    <t>INDICATOR_72</t>
+  </si>
+  <si>
+    <t>INDICATOR_80</t>
+  </si>
+  <si>
+    <t>INDICATOR_83</t>
+  </si>
+  <si>
+    <t>INDICATOR_90</t>
+  </si>
+  <si>
+    <t>INDICATOR_91</t>
+  </si>
+  <si>
+    <t>INDICATOR_92</t>
+  </si>
+  <si>
+    <t>INDICATOR_93</t>
+  </si>
+  <si>
+    <t>INDICATOR_94</t>
+  </si>
+  <si>
+    <t>INDICATOR_150</t>
+  </si>
+  <si>
+    <t>INDICATOR_151</t>
   </si>
 </sst>
 </file>
@@ -462,7 +525,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -511,7 +574,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -570,7 +633,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +682,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2052,6 +2115,363 @@
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2099,15 +2519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -2221,6 +2632,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2228,14 +2648,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2247,6 +2659,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="153">
   <si>
     <t>Action</t>
   </si>
@@ -408,6 +408,165 @@
   </si>
   <si>
     <t>INDICATOR_151</t>
+  </si>
+  <si>
+    <t>INDICATOR_201</t>
+  </si>
+  <si>
+    <t>INDICATOR_202</t>
+  </si>
+  <si>
+    <t>INDICATOR_204</t>
+  </si>
+  <si>
+    <t>INDICATOR_205</t>
+  </si>
+  <si>
+    <t>INDICATOR_206</t>
+  </si>
+  <si>
+    <t>INDICATOR_207</t>
+  </si>
+  <si>
+    <t>INDICATOR_208</t>
+  </si>
+  <si>
+    <t>INDICATOR_209</t>
+  </si>
+  <si>
+    <t>INDICATOR_234</t>
+  </si>
+  <si>
+    <t>INDICATOR_211</t>
+  </si>
+  <si>
+    <t>INDICATOR_235</t>
+  </si>
+  <si>
+    <t>INDICATOR_212</t>
+  </si>
+  <si>
+    <t>INDICATOR_213</t>
+  </si>
+  <si>
+    <t>INDICATOR_214</t>
+  </si>
+  <si>
+    <t>INDICATOR_215</t>
+  </si>
+  <si>
+    <t>INDICATOR_216</t>
+  </si>
+  <si>
+    <t>INDICATOR_217</t>
+  </si>
+  <si>
+    <t>INDICATOR_220</t>
+  </si>
+  <si>
+    <t>INDICATOR_221</t>
+  </si>
+  <si>
+    <t>INDICATOR_222</t>
+  </si>
+  <si>
+    <t>INDICATOR_223</t>
+  </si>
+  <si>
+    <t>INDICATOR_224</t>
+  </si>
+  <si>
+    <t>INDICATOR_225</t>
+  </si>
+  <si>
+    <t>INDICATOR_226</t>
+  </si>
+  <si>
+    <t>INDICATOR_227</t>
+  </si>
+  <si>
+    <t>INDICATOR_232</t>
+  </si>
+  <si>
+    <t>INDICATOR_233</t>
+  </si>
+  <si>
+    <t>INDICATOR_250</t>
+  </si>
+  <si>
+    <t>INDICATOR_251</t>
+  </si>
+  <si>
+    <t>INDICATOR_252</t>
+  </si>
+  <si>
+    <t>INDICATOR_253</t>
+  </si>
+  <si>
+    <t>INDICATOR_254</t>
+  </si>
+  <si>
+    <t>INDICATOR_255</t>
+  </si>
+  <si>
+    <t>INDICATOR_256</t>
+  </si>
+  <si>
+    <t>INDICATOR_257</t>
+  </si>
+  <si>
+    <t>INDICATOR_258</t>
+  </si>
+  <si>
+    <t>INDICATOR_259</t>
+  </si>
+  <si>
+    <t>INDICATOR_260</t>
+  </si>
+  <si>
+    <t>INDICATOR_261</t>
+  </si>
+  <si>
+    <t>INDICATOR_262</t>
+  </si>
+  <si>
+    <t>INDICATOR_263</t>
+  </si>
+  <si>
+    <t>INDICATOR_264</t>
+  </si>
+  <si>
+    <t>INDICATOR_265</t>
+  </si>
+  <si>
+    <t>INDICATOR_266</t>
+  </si>
+  <si>
+    <t>INDICATOR_267</t>
+  </si>
+  <si>
+    <t>INDICATOR_268</t>
+  </si>
+  <si>
+    <t>INDICATOR_269</t>
+  </si>
+  <si>
+    <t>INDICATOR_270</t>
+  </si>
+  <si>
+    <t>INDICATOR_271</t>
+  </si>
+  <si>
+    <t>INDICATOR_272</t>
+  </si>
+  <si>
+    <t>INDICATOR_273</t>
+  </si>
+  <si>
+    <t>INDICATOR_274</t>
+  </si>
+  <si>
+    <t>INDICATOR_900</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136:F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2472,6 +2631,907 @@
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/16_LIB_EWS_SME_RETAIL/16_LibFormula.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\16_LIB_EWS_SME_RETAIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.dessi\Desktop\AAAP\INTESA\Repository\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\16_LIB_EWS_SME_RETAIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="154">
   <si>
     <t>Action</t>
   </si>
@@ -567,12 +567,15 @@
   </si>
   <si>
     <t>INDICATOR_900</t>
+  </si>
+  <si>
+    <t>INDICATOR_120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,7 +687,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +736,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +795,7 @@
         <xdr:cNvPr id="2052" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +844,7 @@
         <xdr:cNvPr id="2" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136:F137"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2114,8 +2117,8 @@
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>69</v>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -2132,7 +2135,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -2149,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -2166,7 +2169,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -2183,7 +2186,7 @@
         <v>40</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -2200,7 +2203,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -2217,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -2234,7 +2237,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -2251,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
@@ -2268,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
@@ -2285,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -2302,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -2319,7 +2322,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -2336,7 +2339,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -2353,7 +2356,7 @@
         <v>40</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -2370,7 +2373,7 @@
         <v>40</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -2387,7 +2390,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -2404,7 +2407,7 @@
         <v>40</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -2421,7 +2424,7 @@
         <v>40</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -2438,7 +2441,7 @@
         <v>40</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -2455,7 +2458,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
@@ -2472,7 +2475,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -2489,7 +2492,7 @@
         <v>40</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -2506,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
@@ -2523,7 +2526,7 @@
         <v>40</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -2540,7 +2543,7 @@
         <v>40</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
@@ -2557,7 +2560,7 @@
         <v>40</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -2574,7 +2577,7 @@
         <v>40</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -2591,7 +2594,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -2608,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -2625,7 +2628,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -2642,7 +2645,7 @@
         <v>40</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -2659,7 +2662,7 @@
         <v>40</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -2676,7 +2679,7 @@
         <v>40</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -2693,7 +2696,7 @@
         <v>40</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
@@ -2710,7 +2713,7 @@
         <v>40</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -2727,7 +2730,7 @@
         <v>40</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -2744,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -2761,7 +2764,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -2778,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -2795,7 +2798,7 @@
         <v>40</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -2812,7 +2815,7 @@
         <v>40</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -2829,7 +2832,7 @@
         <v>40</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -2846,7 +2849,7 @@
         <v>40</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>13</v>
@@ -2863,7 +2866,7 @@
         <v>40</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
@@ -2880,7 +2883,7 @@
         <v>40</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
@@ -2897,7 +2900,7 @@
         <v>40</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
@@ -2914,7 +2917,7 @@
         <v>40</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -2931,7 +2934,7 @@
         <v>40</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -2948,7 +2951,7 @@
         <v>40</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -2965,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -2982,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -2999,7 +3002,7 @@
         <v>40</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -3016,7 +3019,7 @@
         <v>40</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>13</v>
@@ -3033,7 +3036,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>13</v>
@@ -3050,7 +3053,7 @@
         <v>40</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>13</v>
@@ -3067,7 +3070,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>13</v>
@@ -3084,7 +3087,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>13</v>
@@ -3101,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
@@ -3118,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>13</v>
@@ -3135,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>13</v>
@@ -3152,7 +3155,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>13</v>
@@ -3169,7 +3172,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>13</v>
@@ -3186,7 +3189,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>13</v>
@@ -3203,7 +3206,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>13</v>
@@ -3220,7 +3223,7 @@
         <v>40</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
@@ -3237,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>13</v>
@@ -3254,7 +3257,7 @@
         <v>40</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>13</v>
@@ -3271,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>13</v>
@@ -3288,7 +3291,7 @@
         <v>40</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>13</v>
@@ -3305,7 +3308,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>13</v>
@@ -3322,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>13</v>
@@ -3339,7 +3342,7 @@
         <v>40</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
@@ -3356,7 +3359,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
@@ -3373,7 +3376,7 @@
         <v>40</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>13</v>
@@ -3390,7 +3393,7 @@
         <v>40</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>13</v>
@@ -3407,7 +3410,7 @@
         <v>40</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>13</v>
@@ -3424,7 +3427,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>13</v>
@@ -3441,7 +3444,7 @@
         <v>40</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>13</v>
@@ -3458,7 +3461,7 @@
         <v>40</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>13</v>
@@ -3475,7 +3478,7 @@
         <v>40</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -3492,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>13</v>
@@ -3509,7 +3512,7 @@
         <v>40</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>13</v>
@@ -3525,13 +3528,30 @@
       <c r="B137" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3579,6 +3599,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A0528662C946464F888B6D4F751B664E" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="7eb8da2da6b7d5c53beb1ead2cce6035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b076ddd7a9ae18a4618df1e20c90f69">
     <xsd:element name="properties">
@@ -3692,7 +3718,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3701,13 +3727,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18766838-C093-4689-97F5-C7603AB3A608}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3723,25 +3758,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDBC09D-8C85-4E54-AA93-52829A2ABEB7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3101153D-8A60-4FAA-A016-5BFDF61D07EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>